--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0001205643222605665</v>
+        <v>0.0001205196183317144</v>
       </c>
       <c r="E2">
-        <v>0.0001205643222605665</v>
+        <v>0.0001205196183317144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.414084356266307E-07</v>
+        <v>4.41755591186678E-07</v>
       </c>
       <c r="E3">
-        <v>4.414084356266307E-07</v>
+        <v>4.41755591186678E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001863764891038359</v>
+        <v>0.001863934658813622</v>
       </c>
       <c r="E4">
-        <v>0.001863764891038359</v>
+        <v>0.001863934658813622</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.003822926032821816</v>
+        <v>0.003822217619246418</v>
       </c>
       <c r="E5">
-        <v>0.003822926032821816</v>
+        <v>0.003822217619246418</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1654435687632623</v>
+        <v>0.1654206248896664</v>
       </c>
       <c r="E6">
-        <v>0.1654435687632623</v>
+        <v>0.1654206248896664</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9914257351071647</v>
+        <v>0.9925850874805752</v>
       </c>
       <c r="E7">
-        <v>0.008574264892835304</v>
+        <v>0.007414912519424832</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.990845434638757</v>
+        <v>0.08589535494779904</v>
       </c>
       <c r="E8">
-        <v>0.009154565361243039</v>
+        <v>0.914104645052201</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9894824641255109</v>
+        <v>0.0006806875824239165</v>
       </c>
       <c r="E9">
-        <v>0.01051753587448911</v>
+        <v>0.9993193124175761</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.99105738463266</v>
+        <v>0.05198062877698079</v>
       </c>
       <c r="E10">
-        <v>0.008942615367339979</v>
+        <v>0.9480193712230192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.991218180380525</v>
+        <v>0.01026406553360165</v>
       </c>
       <c r="E11">
-        <v>0.008781819619474995</v>
+        <v>0.9897359344663983</v>
       </c>
       <c r="F11">
-        <v>0.02328556403517723</v>
+        <v>1.747710943222046</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7.385748087032532E-07</v>
+        <v>7.333622789178556E-07</v>
       </c>
       <c r="E12">
-        <v>7.385748087032532E-07</v>
+        <v>7.333622789178556E-07</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2.642186681858405E-09</v>
+        <v>2.603280256073345E-09</v>
       </c>
       <c r="E13">
-        <v>2.642186681858405E-09</v>
+        <v>2.603280256073345E-09</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.00022279644781852</v>
+        <v>0.0002217453326150737</v>
       </c>
       <c r="E14">
-        <v>0.00022279644781852</v>
+        <v>0.0002217453326150737</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0002102733184735505</v>
+        <v>0.0002114032010213806</v>
       </c>
       <c r="E15">
-        <v>0.0002102733184735505</v>
+        <v>0.0002114032010213806</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03911536880358527</v>
+        <v>0.03925039207597144</v>
       </c>
       <c r="E16">
-        <v>0.03911536880358527</v>
+        <v>0.03925039207597144</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9968827705638367</v>
+        <v>0.9588862564789086</v>
       </c>
       <c r="E17">
-        <v>0.003117229436163327</v>
+        <v>0.04111374352109143</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9965112252660432</v>
+        <v>0.06508673683908942</v>
       </c>
       <c r="E18">
-        <v>0.003488774733956812</v>
+        <v>0.9349132631609106</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9958828858068776</v>
+        <v>0.0006413738786290194</v>
       </c>
       <c r="E19">
-        <v>0.00411711419312244</v>
+        <v>0.9993586261213709</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9966175542009942</v>
+        <v>0.03014554556788774</v>
       </c>
       <c r="E20">
-        <v>0.003382445799005818</v>
+        <v>0.9698544544321123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9966903912822352</v>
+        <v>0.002691205399276805</v>
       </c>
       <c r="E21">
-        <v>0.003309608717764756</v>
+        <v>0.9973087946007232</v>
       </c>
       <c r="F21">
-        <v>0.00577801326289773</v>
+        <v>1.958587408065796</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
